--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -19,88 +19,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>No.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>API Purpose</t>
-  </si>
-  <si>
-    <t>Request Url</t>
-  </si>
-  <si>
-    <t>Request method</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+  <si>
+    <t>Depends</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/login,/api/reg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Accept':'','Accept-Encoding':'','Accept-Language':'','User-Agent':''}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'name': 'user1', 'password':'123456'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'param1': '123', 'param2': '123'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Purpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Header</t>
-  </si>
-  <si>
-    <t>Body Type</t>
-  </si>
-  <si>
-    <t>Request Body</t>
-  </si>
-  <si>
-    <t>Need Cookie</t>
-  </si>
-  <si>
-    <t>Need Sign</t>
-  </si>
-  <si>
-    <t>Need Collection</t>
-  </si>
-  <si>
-    <t>Depends</t>
-  </si>
-  <si>
-    <t>Response Type</t>
-  </si>
-  <si>
-    <t>Checkpoint</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Accept': None, 'Accept-Encoding': None, 'Accept-Language': None, 'User-Agent': None}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'name': 'user1', 'password': 123456}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'param1': 123, 'param2': 123}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/login,/api/reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Cookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -151,15 +169,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -442,115 +461,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
+    <sheet name="case2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Depends</t>
   </si>
@@ -463,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,4 +623,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Depends</t>
   </si>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" activeCellId="1" sqref="F3 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -547,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -579,7 +595,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -591,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -629,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>

--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Depends</t>
   </si>
@@ -100,14 +100,6 @@
   </si>
   <si>
     <t>Request_Body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Cookie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Sign</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -478,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="F3 E8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,17 +484,15 @@
     <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -528,30 +518,24 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -563,39 +547,33 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -607,30 +585,24 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -643,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,17 +629,15 @@
     <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,30 +663,24 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -734,30 +698,24 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -778,24 +736,18 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
-    <sheet name="case2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Depends</t>
   </si>
@@ -31,7 +30,79 @@
     <t>Active</t>
   </si>
   <si>
-    <t>login</t>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Purpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'name': 'user12', 'password':'123456'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code':'201', 'success': 'True'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users/10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -39,96 +110,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/login,/api/reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Accept':'','Accept-Encoding':'','Accept-Language':'','User-Agent':''}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'name': 'user1', 'password':'123456'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'param1': '123', 'param2': '123'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>API_Purpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{'success': 'True'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -472,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,45 +469,45 @@
     <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -532,223 +518,54 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/case.xlsx
+++ b/TestCase/TestData/case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Depends</t>
   </si>
@@ -82,39 +82,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/api/users/10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{'status_code':'201', 'success': 'True'}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/10002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{'success': 'True'}</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,22 +521,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>15</v>
@@ -541,13 +544,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -558,11 +561,14 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
